--- a/log_history/Y4_B2526_Chest_checklist1761800077777_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_Chest_checklist1761800077777_backup@backdoor.com.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2368\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228208F-1056-4515-8CDB-A72AA94BAF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
+    <workbookView xWindow="1900" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="9">
   <si>
     <t>Student ID</t>
   </si>
@@ -42,82 +43,19 @@
     <t>Chest</t>
   </si>
   <si>
-    <t>12:41:08</t>
+    <t>Edited</t>
   </si>
   <si>
-    <t>Scan</t>
-  </si>
-  <si>
-    <t>ahmedali78112@gmail.com</t>
-  </si>
-  <si>
-    <t>12:41:15</t>
-  </si>
-  <si>
-    <t>12:41:19</t>
-  </si>
-  <si>
-    <t>12:41:25</t>
-  </si>
-  <si>
-    <t>12:41:33</t>
-  </si>
-  <si>
-    <t>12:41:57</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>12:42:03</t>
-  </si>
-  <si>
-    <t>12:42:13</t>
-  </si>
-  <si>
-    <t>12:42:31</t>
-  </si>
-  <si>
-    <t>12:42:37</t>
-  </si>
-  <si>
-    <t>12:42:50</t>
-  </si>
-  <si>
-    <t>12:43:17</t>
-  </si>
-  <si>
-    <t>12:43:24</t>
-  </si>
-  <si>
-    <t>12:43:31</t>
-  </si>
-  <si>
-    <t>12:43:39</t>
-  </si>
-  <si>
-    <t>12:44:10</t>
-  </si>
-  <si>
-    <t>12:44:16</t>
-  </si>
-  <si>
-    <t>12:44:22</t>
-  </si>
-  <si>
-    <t>12:44:31</t>
-  </si>
-  <si>
-    <t>12:44:38</t>
-  </si>
-  <si>
-    <t>12:42:63</t>
+    <t>System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -147,175 +85,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -649,29 +427,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -681,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>221269</v>
       </c>
@@ -689,19 +468,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>45936</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>221272</v>
       </c>
@@ -709,19 +488,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>45936</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>221275</v>
       </c>
@@ -729,19 +508,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>45936</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>221277</v>
       </c>
@@ -749,19 +528,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>45936</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>221280</v>
       </c>
@@ -769,19 +548,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>45936</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>221287</v>
       </c>
@@ -789,19 +568,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+        <v>45936</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>221292</v>
       </c>
@@ -809,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
+        <v>45936</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>221299</v>
       </c>
@@ -829,19 +608,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
+        <v>45936</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>221300</v>
       </c>
@@ -849,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
+        <v>45936</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>221301</v>
       </c>
@@ -869,19 +648,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+        <v>45936</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>221306</v>
       </c>
@@ -889,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
+        <v>45936</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>221309</v>
       </c>
@@ -909,19 +688,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
+        <v>45936</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>221313</v>
       </c>
@@ -929,19 +708,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
+        <v>45936</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>221315</v>
       </c>
@@ -949,19 +728,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
+        <v>45936</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>221320</v>
       </c>
@@ -969,19 +748,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
+        <v>45936</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>221327</v>
       </c>
@@ -989,19 +768,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+        <v>45936</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>221339</v>
       </c>
@@ -1009,19 +788,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
+        <v>45936</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>221330</v>
       </c>
@@ -1029,19 +808,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
+        <v>45936</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>221334</v>
       </c>
@@ -1049,19 +828,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
+        <v>45936</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>221353</v>
       </c>
@@ -1069,19 +848,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
+        <v>45936</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>221372</v>
       </c>
@@ -1089,19 +868,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
+        <v>45936</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>221273</v>
       </c>
@@ -1109,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
+        <v>45936</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>221379</v>
       </c>
@@ -1129,19 +908,19 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
+        <v>45936</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>221382</v>
       </c>
@@ -1149,19 +928,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
+        <v>45936</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>221384</v>
       </c>
@@ -1169,19 +948,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
+        <v>45936</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.5</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>221385</v>
       </c>
@@ -1189,19 +968,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
+        <v>45936</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>221396</v>
       </c>
@@ -1209,19 +988,19 @@
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
+        <v>45936</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>221399</v>
       </c>
@@ -1229,19 +1008,19 @@
         <v>6</v>
       </c>
       <c r="C29" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
+        <v>45936</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.5</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>221402</v>
       </c>
@@ -1249,19 +1028,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+        <v>45936</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>221419</v>
       </c>
@@ -1269,19 +1048,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
+        <v>45936</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.5</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>221424</v>
       </c>
@@ -1289,19 +1068,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
+        <v>45936</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.5</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>221425</v>
       </c>
@@ -1309,19 +1088,19 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
+        <v>45936</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>221431</v>
       </c>
@@ -1329,19 +1108,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
+        <v>45936</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>221434</v>
       </c>
@@ -1349,19 +1128,19 @@
         <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
+        <v>45936</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.5</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>221440</v>
       </c>
@@ -1369,19 +1148,19 @@
         <v>6</v>
       </c>
       <c r="C36" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
+        <v>45936</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.5</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>221441</v>
       </c>
@@ -1389,19 +1168,19 @@
         <v>6</v>
       </c>
       <c r="C37" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
+        <v>45936</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.5</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>221445</v>
       </c>
@@ -1409,19 +1188,19 @@
         <v>6</v>
       </c>
       <c r="C38" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
+        <v>45936</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.5</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>221451</v>
       </c>
@@ -1429,19 +1208,19 @@
         <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
+        <v>45936</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>221452</v>
       </c>
@@ -1449,19 +1228,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
+        <v>45936</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.5</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>221453</v>
       </c>
@@ -1469,19 +1248,19 @@
         <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
+        <v>45936</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.5</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>221454</v>
       </c>
@@ -1489,19 +1268,19 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>45936</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>221455</v>
       </c>
@@ -1509,19 +1288,19 @@
         <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
+        <v>45936</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.5</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>221456</v>
       </c>
@@ -1529,19 +1308,19 @@
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
+        <v>45936</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.5</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>221457</v>
       </c>
@@ -1549,19 +1328,19 @@
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
+        <v>45936</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.5</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>221462</v>
       </c>
@@ -1569,19 +1348,19 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
+        <v>45936</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.5</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>221463</v>
       </c>
@@ -1589,19 +1368,19 @@
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
+        <v>45936</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.5</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>221465</v>
       </c>
@@ -1609,19 +1388,19 @@
         <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
+        <v>45936</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.5</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>221467</v>
       </c>
@@ -1629,19 +1408,19 @@
         <v>6</v>
       </c>
       <c r="C49" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
+        <v>45936</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.5</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>221469</v>
       </c>
@@ -1649,19 +1428,19 @@
         <v>6</v>
       </c>
       <c r="C50" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
+        <v>45936</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.5</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>221472</v>
       </c>
@@ -1669,19 +1448,19 @@
         <v>6</v>
       </c>
       <c r="C51" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
+        <v>45936</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.5</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>221482</v>
       </c>
@@ -1689,19 +1468,19 @@
         <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
+        <v>45936</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.5</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>221497</v>
       </c>
@@ -1709,19 +1488,19 @@
         <v>6</v>
       </c>
       <c r="C53" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
+        <v>45936</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.5</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>221499</v>
       </c>
@@ -1729,19 +1508,19 @@
         <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
+        <v>45936</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.5</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>221501</v>
       </c>
@@ -1749,19 +1528,19 @@
         <v>6</v>
       </c>
       <c r="C55" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
+        <v>45936</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>221503</v>
       </c>
@@ -1769,19 +1548,19 @@
         <v>6</v>
       </c>
       <c r="C56" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
+        <v>45936</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.5</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>221514</v>
       </c>
@@ -1789,19 +1568,19 @@
         <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
+        <v>45936</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.5</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>221516</v>
       </c>
@@ -1809,19 +1588,19 @@
         <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
+        <v>45936</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.5</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>221519</v>
       </c>
@@ -1829,19 +1608,19 @@
         <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D59" t="s">
-        <v>27</v>
+        <v>45936</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.5</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>221526</v>
       </c>
@@ -1849,19 +1628,19 @@
         <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
+        <v>45936</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.5</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>221529</v>
       </c>
@@ -1869,19 +1648,19 @@
         <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D61" t="s">
-        <v>29</v>
+        <v>45936</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.5</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>221532</v>
       </c>
@@ -1889,22 +1668,22 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>45818</v>
-      </c>
-      <c r="D62" t="s">
-        <v>30</v>
+        <v>45936</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.5</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1 B5:B21 B2 D2:F2 B3 D3:F3 B4 D4:F4 D5:F21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 B5:B21 B2 B3 B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>